--- a/src/data/rise_retail.xlsx
+++ b/src/data/rise_retail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/914d435ab6fbacf7/Área de Trabalho/New folder (2)/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{1F3905CD-17DC-4FD3-B0F8-AA796C0E0F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39A71D0B-AC16-4FF9-8F6D-0D73A591EEAC}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{1F3905CD-17DC-4FD3-B0F8-AA796C0E0F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02142ADC-6C46-4F93-8B69-886E6BBE42D4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{2E1453AD-0B1C-444B-BC6C-7225B7BC8AE5}"/>
+    <workbookView xWindow="18720" yWindow="1395" windowWidth="17355" windowHeight="11790" xr2:uid="{2E1453AD-0B1C-444B-BC6C-7225B7BC8AE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -442,10 +442,13 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="134.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
